--- a/data/financial_statements/socf/VZ.xlsx
+++ b/data/financial_statements/socf/VZ.xlsx
@@ -14,9 +14,129 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
-  <si>
-    <t>Unnamed: 0</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+  <si>
+    <t>2022-12-31</t>
+  </si>
+  <si>
+    <t>2022-09-30</t>
+  </si>
+  <si>
+    <t>2022-06-30</t>
+  </si>
+  <si>
+    <t>2022-03-31</t>
+  </si>
+  <si>
+    <t>2021-12-31</t>
+  </si>
+  <si>
+    <t>2021-09-30</t>
+  </si>
+  <si>
+    <t>2021-06-30</t>
+  </si>
+  <si>
+    <t>2021-03-31</t>
+  </si>
+  <si>
+    <t>2020-12-31</t>
+  </si>
+  <si>
+    <t>2020-09-30</t>
+  </si>
+  <si>
+    <t>2020-06-30</t>
+  </si>
+  <si>
+    <t>2020-03-31</t>
+  </si>
+  <si>
+    <t>2019-12-31</t>
+  </si>
+  <si>
+    <t>2019-09-30</t>
+  </si>
+  <si>
+    <t>2019-06-30</t>
+  </si>
+  <si>
+    <t>2019-03-31</t>
+  </si>
+  <si>
+    <t>2018-12-31</t>
+  </si>
+  <si>
+    <t>2018-09-30</t>
+  </si>
+  <si>
+    <t>2018-06-30</t>
+  </si>
+  <si>
+    <t>2018-03-31</t>
+  </si>
+  <si>
+    <t>2017-12-31</t>
+  </si>
+  <si>
+    <t>2017-09-30</t>
+  </si>
+  <si>
+    <t>2017-06-30</t>
+  </si>
+  <si>
+    <t>2017-03-31</t>
+  </si>
+  <si>
+    <t>2016-12-31</t>
+  </si>
+  <si>
+    <t>2016-09-30</t>
+  </si>
+  <si>
+    <t>2016-06-30</t>
+  </si>
+  <si>
+    <t>2016-03-31</t>
+  </si>
+  <si>
+    <t>2015-12-31</t>
+  </si>
+  <si>
+    <t>2015-09-30</t>
+  </si>
+  <si>
+    <t>2015-06-30</t>
+  </si>
+  <si>
+    <t>2015-03-31</t>
+  </si>
+  <si>
+    <t>2014-12-31</t>
+  </si>
+  <si>
+    <t>2014-09-30</t>
+  </si>
+  <si>
+    <t>2014-06-30</t>
+  </si>
+  <si>
+    <t>2014-03-31</t>
+  </si>
+  <si>
+    <t>2013-12-31</t>
+  </si>
+  <si>
+    <t>2013-09-30</t>
+  </si>
+  <si>
+    <t>2013-06-30</t>
+  </si>
+  <si>
+    <t>2013-03-31</t>
+  </si>
+  <si>
+    <t>Item</t>
   </si>
   <si>
     <t>Net Income</t>
@@ -107,9 +227,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -162,12 +279,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -464,1742 +578,1778 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AN29"/>
+  <dimension ref="A1:AO29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:40">
+    <row r="1" spans="1:41">
       <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2">
-        <v>44834</v>
-      </c>
-      <c r="C1" s="2">
-        <v>44742</v>
-      </c>
-      <c r="D1" s="2">
-        <v>44651</v>
-      </c>
-      <c r="E1" s="2">
-        <v>44561</v>
-      </c>
-      <c r="F1" s="2">
-        <v>44469</v>
-      </c>
-      <c r="G1" s="2">
-        <v>44377</v>
-      </c>
-      <c r="H1" s="2">
-        <v>44286</v>
-      </c>
-      <c r="I1" s="2">
-        <v>44196</v>
-      </c>
-      <c r="J1" s="2">
-        <v>44104</v>
-      </c>
-      <c r="K1" s="2">
-        <v>44012</v>
-      </c>
-      <c r="L1" s="2">
-        <v>43921</v>
-      </c>
-      <c r="M1" s="2">
-        <v>43830</v>
-      </c>
-      <c r="N1" s="2">
-        <v>43738</v>
-      </c>
-      <c r="O1" s="2">
-        <v>43646</v>
-      </c>
-      <c r="P1" s="2">
-        <v>43555</v>
-      </c>
-      <c r="Q1" s="2">
-        <v>43465</v>
-      </c>
-      <c r="R1" s="2">
-        <v>43373</v>
-      </c>
-      <c r="S1" s="2">
-        <v>43281</v>
-      </c>
-      <c r="T1" s="2">
-        <v>43190</v>
-      </c>
-      <c r="U1" s="2">
-        <v>43100</v>
-      </c>
-      <c r="V1" s="2">
-        <v>43008</v>
-      </c>
-      <c r="W1" s="2">
-        <v>42916</v>
-      </c>
-      <c r="X1" s="2">
-        <v>42825</v>
-      </c>
-      <c r="Y1" s="2">
-        <v>42735</v>
-      </c>
-      <c r="Z1" s="2">
-        <v>42643</v>
-      </c>
-      <c r="AA1" s="2">
-        <v>42551</v>
-      </c>
-      <c r="AB1" s="2">
-        <v>42460</v>
-      </c>
-      <c r="AC1" s="2">
-        <v>42369</v>
-      </c>
-      <c r="AD1" s="2">
-        <v>42277</v>
-      </c>
-      <c r="AE1" s="2">
-        <v>42185</v>
-      </c>
-      <c r="AF1" s="2">
-        <v>42094</v>
-      </c>
-      <c r="AG1" s="2">
-        <v>42004</v>
-      </c>
-      <c r="AH1" s="2">
-        <v>41912</v>
-      </c>
-      <c r="AI1" s="2">
-        <v>41820</v>
-      </c>
-      <c r="AJ1" s="2">
-        <v>41729</v>
-      </c>
-      <c r="AK1" s="2">
-        <v>41639</v>
-      </c>
-      <c r="AL1" s="2">
-        <v>41547</v>
-      </c>
-      <c r="AM1" s="2">
-        <v>41455</v>
-      </c>
-      <c r="AN1" s="2">
-        <v>41364</v>
+        <v>40</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:40">
-      <c r="A2" t="s">
-        <v>1</v>
+    <row r="2" spans="1:41">
+      <c r="A2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="B2">
+        <v>6698000000</v>
+      </c>
+      <c r="C2">
         <v>5024000000</v>
       </c>
-      <c r="C2">
+      <c r="D2">
         <v>5315000000</v>
       </c>
-      <c r="D2">
+      <c r="E2">
         <v>4711000000</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>4737000000</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>6554000000</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>5949000000</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>5378000000</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>4718000000</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4504000000</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>4839000000</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>4287000000</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>5217000000</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>5337000000</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4074000000</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>5160000000</v>
       </c>
-      <c r="Q2">
+      <c r="R2">
         <v>2065000000</v>
       </c>
-      <c r="R2">
+      <c r="S2">
         <v>5062000000</v>
       </c>
-      <c r="S2">
+      <c r="T2">
         <v>4246000000</v>
       </c>
-      <c r="T2">
+      <c r="U2">
         <v>4666000000</v>
       </c>
-      <c r="U2">
+      <c r="V2">
         <v>18783000000</v>
       </c>
-      <c r="V2">
+      <c r="W2">
         <v>3736000000</v>
       </c>
-      <c r="W2">
+      <c r="X2">
         <v>4478000000</v>
       </c>
-      <c r="X2">
+      <c r="Y2">
         <v>3553000000</v>
       </c>
-      <c r="Y2">
+      <c r="Z2">
         <v>4600000000</v>
       </c>
-      <c r="Z2">
+      <c r="AA2">
         <v>3747000000</v>
       </c>
-      <c r="AA2">
+      <c r="AB2">
         <v>831000000</v>
       </c>
-      <c r="AB2">
+      <c r="AC2">
         <v>4430000000</v>
       </c>
-      <c r="AC2">
+      <c r="AD2">
         <v>5513000000</v>
       </c>
-      <c r="AD2">
+      <c r="AE2">
         <v>4171000000</v>
       </c>
-      <c r="AE2">
+      <c r="AF2">
         <v>4353000000</v>
       </c>
-      <c r="AF2">
+      <c r="AG2">
         <v>4338000000</v>
       </c>
-      <c r="AG2">
+      <c r="AH2">
         <v>-2148000000</v>
       </c>
-      <c r="AH2">
+      <c r="AI2">
         <v>3794000000</v>
       </c>
-      <c r="AI2">
+      <c r="AJ2">
         <v>4324000000</v>
       </c>
-      <c r="AJ2">
+      <c r="AK2">
         <v>5986000000</v>
       </c>
-      <c r="AK2">
+      <c r="AL2">
         <v>7916000000</v>
       </c>
-      <c r="AL2">
+      <c r="AM2">
         <v>5578000000</v>
       </c>
-      <c r="AM2">
+      <c r="AN2">
         <v>5198000000</v>
       </c>
-      <c r="AN2">
+      <c r="AO2">
         <v>4855000000</v>
       </c>
     </row>
-    <row r="3" spans="1:40">
-      <c r="A3" t="s">
-        <v>2</v>
+    <row r="3" spans="1:41">
+      <c r="A3" s="1" t="s">
+        <v>42</v>
       </c>
       <c r="B3">
+        <v>4218000000</v>
+      </c>
+      <c r="C3">
         <v>4324000000</v>
       </c>
-      <c r="C3">
+      <c r="D3">
         <v>4321000000</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>4236000000</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>4051000000</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>3961000000</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>4020000000</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>4174000000</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>4197000000</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>4192000000</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>4181000000</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>4150000000</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>4105000000</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>4114000000</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4232000000</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>4231000000</v>
       </c>
-      <c r="Q3">
+      <c r="R3">
         <v>4352000000</v>
       </c>
-      <c r="R3">
+      <c r="S3">
         <v>4377000000</v>
       </c>
-      <c r="S3">
+      <c r="T3">
         <v>4350000000</v>
       </c>
-      <c r="T3">
+      <c r="U3">
         <v>4324000000</v>
       </c>
-      <c r="U3">
+      <c r="V3">
         <v>4456000000</v>
       </c>
-      <c r="V3">
+      <c r="W3">
         <v>4272000000</v>
       </c>
-      <c r="W3">
+      <c r="X3">
         <v>4167000000</v>
       </c>
-      <c r="X3">
+      <c r="Y3">
         <v>4059000000</v>
       </c>
-      <c r="Y3">
+      <c r="Z3">
         <v>3987000000</v>
       </c>
-      <c r="Z3">
+      <c r="AA3">
         <v>3942000000</v>
       </c>
-      <c r="AA3">
+      <c r="AB3">
         <v>3982000000</v>
       </c>
-      <c r="AB3">
+      <c r="AC3">
         <v>4017000000</v>
       </c>
-      <c r="AC3">
+      <c r="AD3">
         <v>4039000000</v>
       </c>
-      <c r="AD3">
+      <c r="AE3">
         <v>4009000000</v>
       </c>
-      <c r="AE3">
+      <c r="AF3">
         <v>3980000000</v>
       </c>
-      <c r="AF3">
+      <c r="AG3">
         <v>3989000000</v>
       </c>
-      <c r="AG3">
+      <c r="AH3">
         <v>4068000000</v>
       </c>
-      <c r="AH3">
+      <c r="AI3">
         <v>4167000000</v>
       </c>
-      <c r="AI3">
+      <c r="AJ3">
         <v>4161000000</v>
       </c>
-      <c r="AJ3">
+      <c r="AK3">
         <v>4137000000</v>
       </c>
-      <c r="AK3">
+      <c r="AL3">
         <v>4183000000</v>
       </c>
-      <c r="AL3">
+      <c r="AM3">
         <v>4154000000</v>
       </c>
-      <c r="AM3">
+      <c r="AN3">
         <v>4151000000</v>
       </c>
-      <c r="AN3">
+      <c r="AO3">
         <v>4118000000</v>
       </c>
     </row>
-    <row r="4" spans="1:40">
-      <c r="A4" t="s">
-        <v>3</v>
+    <row r="4" spans="1:41">
+      <c r="A4" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="B4">
+        <v>-581000000</v>
+      </c>
+      <c r="C4">
         <v>1069000000</v>
       </c>
-      <c r="C4">
+      <c r="D4">
         <v>1288000000</v>
       </c>
-      <c r="D4">
+      <c r="E4">
         <v>752000000</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>20000000</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>1085000000</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>-159000000</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>752000000</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>1300000000</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>1839000000</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>234000000</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>491000000</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>542000000</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>1172000000</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>478000000</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>304000000</v>
       </c>
-      <c r="Q4">
+      <c r="R4">
         <v>1407000000</v>
       </c>
-      <c r="R4">
+      <c r="S4">
         <v>343000000</v>
       </c>
-      <c r="S4">
+      <c r="T4">
         <v>285000000</v>
       </c>
-      <c r="T4">
+      <c r="U4">
         <v>-180000000</v>
       </c>
-      <c r="U4">
+      <c r="V4">
         <v>-15924000000</v>
       </c>
-      <c r="V4">
+      <c r="W4">
         <v>829000000</v>
       </c>
-      <c r="W4">
+      <c r="X4">
         <v>-1690000000</v>
       </c>
-      <c r="X4">
+      <c r="Y4">
         <v>-1139000000</v>
       </c>
-      <c r="Y4">
+      <c r="Z4">
         <v>-1064000000</v>
       </c>
-      <c r="Z4">
+      <c r="AA4">
         <v>1426000000</v>
       </c>
-      <c r="AA4">
+      <c r="AB4">
         <v>740000000</v>
       </c>
-      <c r="AB4">
+      <c r="AC4">
         <v>905000000</v>
       </c>
-      <c r="AC4">
+      <c r="AD4">
         <v>198000000</v>
       </c>
-      <c r="AD4">
+      <c r="AE4">
         <v>1105000000</v>
       </c>
-      <c r="AE4">
+      <c r="AF4">
         <v>669000000</v>
       </c>
-      <c r="AF4">
+      <c r="AG4">
         <v>1534000000</v>
       </c>
-      <c r="AG4">
+      <c r="AH4">
         <v>6734000000</v>
       </c>
-      <c r="AH4">
+      <c r="AI4">
         <v>1209000000</v>
       </c>
-      <c r="AI4">
+      <c r="AJ4">
         <v>984000000</v>
       </c>
-      <c r="AJ4">
+      <c r="AK4">
         <v>-1537000000</v>
       </c>
-      <c r="AK4">
+      <c r="AL4">
         <v>-2682000000</v>
       </c>
-      <c r="AL4">
+      <c r="AM4">
         <v>1728000000</v>
       </c>
-      <c r="AM4">
+      <c r="AN4">
         <v>1131000000</v>
       </c>
-      <c r="AN4">
+      <c r="AO4">
         <v>1447000000</v>
       </c>
     </row>
-    <row r="5" spans="1:40">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5">
+    <row r="5" spans="1:41">
+      <c r="A5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5">
         <v>-1592000000</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>189000000</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>-1471000000</v>
       </c>
-      <c r="Q5">
+      <c r="R5">
         <v>-2667000000</v>
       </c>
-      <c r="U5">
+      <c r="V5">
         <v>-5674000000</v>
       </c>
-      <c r="Y5">
+      <c r="Z5">
         <v>-5067000000</v>
       </c>
-      <c r="AC5">
+      <c r="AD5">
         <v>-945000000</v>
       </c>
-      <c r="AG5">
+      <c r="AH5">
         <v>-2745000000</v>
       </c>
-      <c r="AK5">
+      <c r="AL5">
         <v>-843000000</v>
       </c>
     </row>
-    <row r="6" spans="1:40">
-      <c r="A6" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6">
+    <row r="6" spans="1:41">
+      <c r="A6" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6">
         <v>-905000000</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>1303000000</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>-369000000</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>1457000000</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>1289000000</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>1633000000</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>-76000000</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <v>-324000000</v>
       </c>
-      <c r="U6">
+      <c r="V6">
         <v>168000000</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <v>61000000</v>
       </c>
-      <c r="AC6">
+      <c r="AD6">
         <v>-99000000</v>
       </c>
-      <c r="AG6">
+      <c r="AH6">
         <v>-132000000</v>
       </c>
-      <c r="AK6">
+      <c r="AL6">
         <v>56000000</v>
       </c>
     </row>
-    <row r="7" spans="1:40">
-      <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="E7">
+    <row r="7" spans="1:41">
+      <c r="A7" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F7">
         <v>1457000000</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>-966000000</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>-2359000000</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <v>1777000000</v>
       </c>
-      <c r="U7">
+      <c r="V7">
         <v>-459000000</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <v>-1089000000</v>
       </c>
-      <c r="AC7">
+      <c r="AD7">
         <v>2545000000</v>
       </c>
-      <c r="AG7">
+      <c r="AH7">
         <v>1412000000</v>
       </c>
-      <c r="AK7">
+      <c r="AL7">
         <v>925000000</v>
       </c>
     </row>
-    <row r="8" spans="1:40">
-      <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="H8">
+    <row r="8" spans="1:41">
+      <c r="A8" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8">
         <v>17219000000</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>20658000000</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>17391000000</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <v>19297000000</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>17419000000</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>21806000000</v>
       </c>
     </row>
-    <row r="9" spans="1:40">
-      <c r="A9" t="s">
-        <v>8</v>
+    <row r="9" spans="1:41">
+      <c r="A9" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="B9">
+        <v>2000000</v>
+      </c>
+      <c r="C9">
         <v>1501000000</v>
       </c>
-      <c r="C9">
+      <c r="D9">
         <v>1533000000</v>
       </c>
-      <c r="D9">
+      <c r="E9">
         <v>-3492000000</v>
       </c>
-      <c r="E9">
+      <c r="F9">
         <v>-453000000</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>521000000</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>123000000</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>-41000000</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>-143000000</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>-1952000000</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>4505000000</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>-1208000000</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>1095000000</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <v>691000000</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>-1891000000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>-2702000000</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <v>1981000000</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>-406000000</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>495000000</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <v>-2033000000</v>
       </c>
-      <c r="U9">
+      <c r="V9">
         <v>6284000000</v>
       </c>
-      <c r="V9">
+      <c r="W9">
         <v>-2536000000</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <v>1277000000</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <v>-4998000000</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <v>4357000000</v>
       </c>
-      <c r="Z9">
+      <c r="AA9">
         <v>-2943000000</v>
       </c>
-      <c r="AA9">
+      <c r="AB9">
         <v>-912000000</v>
       </c>
-      <c r="AB9">
+      <c r="AC9">
         <v>-1162000000</v>
       </c>
-      <c r="AC9">
+      <c r="AD9">
         <v>-501000000</v>
       </c>
-      <c r="AD9">
+      <c r="AE9">
         <v>1027000000</v>
       </c>
-      <c r="AE9">
+      <c r="AF9">
         <v>1304000000</v>
       </c>
-      <c r="AF9">
+      <c r="AG9">
         <v>-888000000</v>
       </c>
-      <c r="AG9">
+      <c r="AH9">
         <v>121000000</v>
       </c>
-      <c r="AH9">
+      <c r="AI9">
         <v>31000000</v>
       </c>
-      <c r="AI9">
+      <c r="AJ9">
         <v>779000000</v>
       </c>
-      <c r="AJ9">
+      <c r="AK9">
         <v>-1626000000</v>
       </c>
-      <c r="AK9">
+      <c r="AL9">
         <v>935000000</v>
       </c>
-      <c r="AL9">
+      <c r="AM9">
         <v>582000000</v>
       </c>
-      <c r="AM9">
+      <c r="AN9">
         <v>-169000000</v>
       </c>
-      <c r="AN9">
+      <c r="AO9">
         <v>-1491000000</v>
       </c>
     </row>
-    <row r="10" spans="1:40">
-      <c r="A10" t="s">
-        <v>9</v>
+    <row r="10" spans="1:41">
+      <c r="A10" s="1" t="s">
+        <v>49</v>
       </c>
       <c r="B10">
+        <v>-1395000000</v>
+      </c>
+      <c r="C10">
         <v>-1384000000</v>
       </c>
-      <c r="C10">
+      <c r="D10">
         <v>-1613000000</v>
       </c>
-      <c r="D10">
+      <c r="E10">
         <v>614000000</v>
       </c>
-      <c r="E10">
+      <c r="F10">
         <v>1062000000</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>-1397000000</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>811000000</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>-569000000</v>
       </c>
-      <c r="I10">
+      <c r="J10">
         <v>370000000</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>337000000</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <v>969000000</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>1104000000</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>1945000000</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <v>-402000000</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>1862000000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>88000000</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <v>-496000000</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>435000000</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>409000000</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <v>-129000000</v>
       </c>
-      <c r="U10">
+      <c r="V10">
         <v>209000000</v>
       </c>
-      <c r="V10">
+      <c r="W10">
         <v>868000000</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <v>-302000000</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <v>-99000000</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <v>-1820000000</v>
       </c>
-      <c r="Z10">
+      <c r="AA10">
         <v>-1356000000</v>
       </c>
-      <c r="AA10">
+      <c r="AB10">
         <v>770000000</v>
       </c>
-      <c r="AB10">
+      <c r="AC10">
         <v>-693000000</v>
       </c>
-      <c r="AC10">
+      <c r="AD10">
         <v>-149000000</v>
       </c>
-      <c r="AD10">
+      <c r="AE10">
         <v>-792000000</v>
       </c>
-      <c r="AE10">
+      <c r="AF10">
         <v>-1569000000</v>
       </c>
-      <c r="AF10">
+      <c r="AG10">
         <v>1196000000</v>
       </c>
-      <c r="AG10">
+      <c r="AH10">
         <v>164000000</v>
       </c>
-      <c r="AH10">
+      <c r="AI10">
         <v>-848000000</v>
       </c>
-      <c r="AI10">
+      <c r="AJ10">
         <v>-2583000000</v>
       </c>
-      <c r="AJ10">
+      <c r="AK10">
         <v>179000000</v>
       </c>
-      <c r="AK10">
+      <c r="AL10">
         <v>-59000000</v>
       </c>
-      <c r="AL10">
+      <c r="AM10">
         <v>-803000000</v>
       </c>
-      <c r="AM10">
+      <c r="AN10">
         <v>-694000000</v>
       </c>
-      <c r="AN10">
+      <c r="AO10">
         <v>-1398000000</v>
       </c>
     </row>
-    <row r="11" spans="1:40">
-      <c r="A11" t="s">
-        <v>10</v>
+    <row r="11" spans="1:41">
+      <c r="A11" s="1" t="s">
+        <v>50</v>
       </c>
       <c r="B11">
+        <v>8942000000</v>
+      </c>
+      <c r="C11">
         <v>10534000000</v>
       </c>
-      <c r="C11">
+      <c r="D11">
         <v>10844000000</v>
       </c>
-      <c r="D11">
+      <c r="E11">
         <v>6821000000</v>
       </c>
-      <c r="E11">
+      <c r="F11">
         <v>8377000000</v>
       </c>
-      <c r="F11">
+      <c r="G11">
         <v>10724000000</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>10744000000</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>9694000000</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>9296000000</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>8920000000</v>
       </c>
-      <c r="K11">
+      <c r="L11">
         <v>14728000000</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>8824000000</v>
       </c>
-      <c r="M11">
+      <c r="N11">
         <v>8998000000</v>
       </c>
-      <c r="N11">
+      <c r="O11">
         <v>10912000000</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>8755000000</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>7081000000</v>
       </c>
-      <c r="Q11">
+      <c r="R11">
         <v>8095000000</v>
       </c>
-      <c r="R11">
+      <c r="S11">
         <v>9811000000</v>
       </c>
-      <c r="S11">
+      <c r="T11">
         <v>9785000000</v>
       </c>
-      <c r="T11">
+      <c r="U11">
         <v>6648000000</v>
       </c>
-      <c r="U11">
+      <c r="V11">
         <v>7843000000</v>
       </c>
-      <c r="V11">
+      <c r="W11">
         <v>7169000000</v>
       </c>
-      <c r="W11">
+      <c r="X11">
         <v>7930000000</v>
       </c>
-      <c r="X11">
+      <c r="Y11">
         <v>1376000000</v>
       </c>
-      <c r="Y11">
+      <c r="Z11">
         <v>3965000000</v>
       </c>
-      <c r="Z11">
+      <c r="AA11">
         <v>4816000000</v>
       </c>
-      <c r="AA11">
+      <c r="AB11">
         <v>5411000000</v>
       </c>
-      <c r="AB11">
+      <c r="AC11">
         <v>7497000000</v>
       </c>
-      <c r="AC11">
+      <c r="AD11">
         <v>10601000000</v>
       </c>
-      <c r="AD11">
+      <c r="AE11">
         <v>9520000000</v>
       </c>
-      <c r="AE11">
+      <c r="AF11">
         <v>8737000000</v>
       </c>
-      <c r="AF11">
+      <c r="AG11">
         <v>10169000000</v>
       </c>
-      <c r="AG11">
+      <c r="AH11">
         <v>7474000000</v>
       </c>
-      <c r="AH11">
+      <c r="AI11">
         <v>8353000000</v>
       </c>
-      <c r="AI11">
+      <c r="AJ11">
         <v>7665000000</v>
       </c>
-      <c r="AJ11">
+      <c r="AK11">
         <v>7139000000</v>
       </c>
-      <c r="AK11">
+      <c r="AL11">
         <v>10431000000</v>
       </c>
-      <c r="AL11">
+      <c r="AM11">
         <v>11239000000</v>
       </c>
-      <c r="AM11">
+      <c r="AN11">
         <v>9617000000</v>
       </c>
-      <c r="AN11">
+      <c r="AO11">
         <v>7531000000</v>
       </c>
     </row>
-    <row r="12" spans="1:40">
-      <c r="A12" t="s">
-        <v>11</v>
+    <row r="12" spans="1:41">
+      <c r="A12" s="1" t="s">
+        <v>51</v>
       </c>
       <c r="B12">
+        <v>-7276000000</v>
+      </c>
+      <c r="C12">
         <v>-5320000000</v>
       </c>
-      <c r="C12">
+      <c r="D12">
         <v>-4670000000</v>
       </c>
-      <c r="D12">
+      <c r="E12">
         <v>-5821000000</v>
       </c>
-      <c r="E12">
+      <c r="F12">
         <v>-6425000000</v>
       </c>
-      <c r="F12">
+      <c r="G12">
         <v>-5145000000</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>-4222000000</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>-4494000000</v>
       </c>
-      <c r="I12">
+      <c r="J12">
         <v>-4024000000</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>-4318000000</v>
       </c>
-      <c r="K12">
+      <c r="L12">
         <v>-4576000000</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>-5274000000</v>
       </c>
-      <c r="M12">
+      <c r="N12">
         <v>-5607000000</v>
       </c>
-      <c r="N12">
+      <c r="O12">
         <v>-4365000000</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>-3699000000</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>-4268000000</v>
       </c>
-      <c r="Q12">
+      <c r="R12">
         <v>-4632000000</v>
       </c>
-      <c r="R12">
+      <c r="S12">
         <v>-4188000000</v>
       </c>
-      <c r="S12">
+      <c r="T12">
         <v>-3286000000</v>
       </c>
-      <c r="T12">
+      <c r="U12">
         <v>-4552000000</v>
       </c>
-      <c r="U12">
+      <c r="V12">
         <v>-5965000000</v>
       </c>
-      <c r="V12">
+      <c r="W12">
         <v>-4271000000</v>
       </c>
-      <c r="W12">
+      <c r="X12">
         <v>-3944000000</v>
       </c>
-      <c r="X12">
+      <c r="Y12">
         <v>-3067000000</v>
       </c>
-      <c r="Y12">
+      <c r="Z12">
         <v>-5661000000</v>
       </c>
-      <c r="Z12">
+      <c r="AA12">
         <v>-4125000000</v>
       </c>
-      <c r="AA12">
+      <c r="AB12">
         <v>-3886000000</v>
       </c>
-      <c r="AB12">
+      <c r="AC12">
         <v>-3387000000</v>
       </c>
-      <c r="AC12">
+      <c r="AD12">
         <v>-5235000000</v>
       </c>
-      <c r="AD12">
+      <c r="AE12">
         <v>-4387000000</v>
       </c>
-      <c r="AE12">
+      <c r="AF12">
         <v>-4488000000</v>
       </c>
-      <c r="AF12">
+      <c r="AG12">
         <v>-3665000000</v>
       </c>
-      <c r="AG12">
+      <c r="AH12">
         <v>-4567000000</v>
       </c>
-      <c r="AH12">
+      <c r="AI12">
         <v>-4130000000</v>
       </c>
-      <c r="AI12">
+      <c r="AJ12">
         <v>-4344000000</v>
       </c>
-      <c r="AJ12">
+      <c r="AK12">
         <v>-4150000000</v>
       </c>
-      <c r="AK12">
+      <c r="AL12">
         <v>-4797000000</v>
       </c>
-      <c r="AL12">
+      <c r="AM12">
         <v>-4191000000</v>
       </c>
-      <c r="AM12">
+      <c r="AN12">
         <v>-4014000000</v>
       </c>
-      <c r="AN12">
+      <c r="AO12">
         <v>-3602000000</v>
       </c>
     </row>
-    <row r="13" spans="1:40">
-      <c r="A13" t="s">
-        <v>12</v>
+    <row r="13" spans="1:41">
+      <c r="A13" s="1" t="s">
+        <v>52</v>
       </c>
       <c r="B13">
+        <v>-763000000</v>
+      </c>
+      <c r="C13">
         <v>-615000000</v>
       </c>
-      <c r="C13">
+      <c r="D13">
         <v>-437000000</v>
       </c>
-      <c r="D13">
+      <c r="E13">
         <v>-1838000000</v>
       </c>
-      <c r="E13">
+      <c r="F13">
         <v>-569000000</v>
       </c>
-      <c r="F13">
+      <c r="G13">
         <v>-1749000000</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>-495000000</v>
       </c>
-      <c r="H13">
+      <c r="I13">
         <v>-44783000000</v>
       </c>
-      <c r="I13">
+      <c r="J13">
         <v>-139000000</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>-1956000000</v>
       </c>
-      <c r="K13">
+      <c r="L13">
         <v>-1367000000</v>
       </c>
-      <c r="L13">
+      <c r="M13">
         <v>-434000000</v>
       </c>
-      <c r="M13">
+      <c r="N13">
         <v>-599000000</v>
       </c>
-      <c r="N13">
+      <c r="O13">
         <v>-100000000</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>-95000000</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>-104000000</v>
       </c>
-      <c r="Q13">
+      <c r="R13">
         <v>-122000000</v>
       </c>
-      <c r="R13">
+      <c r="S13">
         <v>-152000000</v>
       </c>
-      <c r="S13">
+      <c r="T13">
         <v>-185000000</v>
       </c>
-      <c r="T13">
+      <c r="U13">
         <v>-970000000</v>
       </c>
-      <c r="U13">
+      <c r="V13">
         <v>-114000000</v>
       </c>
-      <c r="V13">
+      <c r="W13">
         <v>-154000000</v>
       </c>
-      <c r="W13">
+      <c r="X13">
         <v>-119000000</v>
       </c>
-      <c r="X13">
+      <c r="Y13">
         <v>-196000000</v>
       </c>
-      <c r="Y13">
+      <c r="Z13">
         <v>-124000000</v>
       </c>
-      <c r="Z13">
+      <c r="AA13">
         <v>-128000000</v>
       </c>
-      <c r="AA13">
+      <c r="AB13">
         <v>-151000000</v>
-      </c>
-      <c r="AB13">
-        <v>-131000000</v>
       </c>
       <c r="AC13">
         <v>-131000000</v>
       </c>
       <c r="AD13">
+        <v>-131000000</v>
+      </c>
+      <c r="AE13">
         <v>-134000000</v>
       </c>
-      <c r="AE13">
+      <c r="AF13">
         <v>-122000000</v>
       </c>
-      <c r="AF13">
+      <c r="AG13">
         <v>-9555000000</v>
       </c>
-      <c r="AG13">
+      <c r="AH13">
         <v>-11000000</v>
       </c>
-      <c r="AH13">
+      <c r="AI13">
         <v>-72000000</v>
       </c>
-      <c r="AI13">
+      <c r="AJ13">
         <v>2309000000</v>
       </c>
-      <c r="AJ13">
+      <c r="AK13">
         <v>-213000000</v>
       </c>
-      <c r="AK13">
+      <c r="AL13">
         <v>-150000000</v>
       </c>
-      <c r="AL13">
+      <c r="AM13">
         <v>1945000000</v>
       </c>
-      <c r="AM13">
+      <c r="AN13">
         <v>-147000000</v>
       </c>
-      <c r="AN13">
+      <c r="AO13">
         <v>-117000000</v>
       </c>
     </row>
-    <row r="14" spans="1:40">
-      <c r="A14" t="s">
-        <v>13</v>
+    <row r="14" spans="1:41">
+      <c r="A14" s="1" t="s">
+        <v>53</v>
       </c>
       <c r="B14">
+        <v>0</v>
+      </c>
+      <c r="C14">
         <v>34000000</v>
       </c>
-      <c r="C14">
+      <c r="D14">
         <v>247000000</v>
       </c>
-      <c r="E14">
+      <c r="F14">
         <v>-3606000000</v>
       </c>
-      <c r="F14">
+      <c r="G14">
         <v>4121000000</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>-50000000</v>
       </c>
-      <c r="H14">
+      <c r="I14">
         <v>-408000000</v>
       </c>
-      <c r="I14">
+      <c r="J14">
         <v>-13000000</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>-108000000</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>-399000000</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>1000000</v>
       </c>
-      <c r="N14">
+      <c r="O14">
         <v>26000000</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>-3000000</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>-25000000</v>
       </c>
-      <c r="Q14">
+      <c r="R14">
         <v>-191000000</v>
       </c>
-      <c r="R14">
+      <c r="S14">
         <v>-1000000</v>
       </c>
-      <c r="S14">
+      <c r="T14">
         <v>-6000000</v>
       </c>
-      <c r="T14">
+      <c r="U14">
         <v>-32000000</v>
       </c>
-      <c r="U14">
+      <c r="V14">
         <v>367000000</v>
       </c>
-      <c r="V14">
+      <c r="W14">
         <v>86000000</v>
       </c>
-      <c r="W14">
+      <c r="X14">
         <v>-973000000</v>
       </c>
-      <c r="X14">
+      <c r="Y14">
         <v>-1746000000</v>
       </c>
-      <c r="Y14">
+      <c r="Z14">
         <v>-2802000000</v>
       </c>
-      <c r="Z14">
+      <c r="AA14">
         <v>-785000000</v>
       </c>
-      <c r="AA14">
+      <c r="AB14">
         <v>9865000000</v>
       </c>
-      <c r="AB14">
+      <c r="AC14">
         <v>-161000000</v>
       </c>
-      <c r="AC14">
+      <c r="AD14">
         <v>-292000000</v>
       </c>
-      <c r="AD14">
+      <c r="AE14">
         <v>20000000</v>
       </c>
-      <c r="AE14">
+      <c r="AF14">
         <v>-3223000000</v>
-      </c>
-      <c r="AF14">
-        <v>-2000000</v>
       </c>
       <c r="AG14">
         <v>-2000000</v>
       </c>
       <c r="AH14">
+        <v>-2000000</v>
+      </c>
+      <c r="AI14">
         <v>119000000</v>
       </c>
-      <c r="AI14">
+      <c r="AJ14">
         <v>-22000000</v>
       </c>
-      <c r="AJ14">
+      <c r="AK14">
         <v>-157000000</v>
       </c>
-      <c r="AK14">
+      <c r="AL14">
         <v>-413000000</v>
       </c>
-      <c r="AL14">
+      <c r="AM14">
         <v>-5000000</v>
       </c>
-      <c r="AM14">
+      <c r="AN14">
         <v>-55000000</v>
       </c>
-      <c r="AN14">
+      <c r="AO14">
         <v>-21000000</v>
       </c>
     </row>
-    <row r="15" spans="1:40">
-      <c r="A15" t="s">
-        <v>14</v>
+    <row r="15" spans="1:41">
+      <c r="A15" s="1" t="s">
+        <v>54</v>
       </c>
       <c r="B15">
+        <v>2697000000</v>
+      </c>
+      <c r="C15">
         <v>-2763000000</v>
       </c>
-      <c r="C15">
+      <c r="D15">
         <v>-1801000000</v>
       </c>
-      <c r="D15">
+      <c r="E15">
         <v>-336000000</v>
       </c>
-      <c r="E15">
+      <c r="F15">
         <v>465000000</v>
       </c>
-      <c r="F15">
+      <c r="G15">
         <v>156000000</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>19000000</v>
       </c>
-      <c r="H15">
+      <c r="I15">
         <v>32000000</v>
       </c>
-      <c r="I15">
+      <c r="J15">
         <v>-867000000</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>37000000</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>1198000000</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>-1272000000</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>781000000</v>
       </c>
-      <c r="N15">
+      <c r="O15">
         <v>871000000</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>11000000</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>-406000000</v>
       </c>
-      <c r="Q15">
+      <c r="R15">
         <v>147000000</v>
       </c>
-      <c r="R15">
+      <c r="S15">
         <v>-67000000</v>
       </c>
-      <c r="S15">
+      <c r="T15">
         <v>34000000</v>
       </c>
-      <c r="T15">
+      <c r="U15">
         <v>269000000</v>
       </c>
-      <c r="U15">
+      <c r="V15">
         <v>243000000</v>
       </c>
-      <c r="V15">
+      <c r="W15">
         <v>611000000</v>
       </c>
-      <c r="W15">
+      <c r="X15">
         <v>327000000</v>
       </c>
-      <c r="X15">
+      <c r="Y15">
         <v>459000000</v>
       </c>
-      <c r="Y15">
+      <c r="Z15">
         <v>1252000000</v>
       </c>
-      <c r="Z15">
+      <c r="AA15">
         <v>-154000000</v>
       </c>
-      <c r="AA15">
+      <c r="AB15">
         <v>261000000</v>
       </c>
-      <c r="AB15">
+      <c r="AC15">
         <v>243000000</v>
       </c>
-      <c r="AC15">
+      <c r="AD15">
         <v>211000000</v>
       </c>
-      <c r="AD15">
+      <c r="AE15">
         <v>76000000</v>
       </c>
-      <c r="AE15">
+      <c r="AF15">
         <v>838000000</v>
       </c>
-      <c r="AF15">
+      <c r="AG15">
         <v>46000000</v>
       </c>
-      <c r="AG15">
+      <c r="AH15">
         <v>-846000000</v>
       </c>
-      <c r="AH15">
+      <c r="AI15">
         <v>-1000000</v>
       </c>
-      <c r="AI15">
+      <c r="AJ15">
         <v>242000000</v>
       </c>
-      <c r="AJ15">
+      <c r="AK15">
         <v>-11000000</v>
       </c>
-      <c r="AK15">
+      <c r="AL15">
         <v>550000000</v>
       </c>
-      <c r="AL15">
+      <c r="AM15">
         <v>63000000</v>
       </c>
-      <c r="AM15">
+      <c r="AN15">
         <v>-20000000</v>
       </c>
-      <c r="AN15">
+      <c r="AO15">
         <v>141000000</v>
       </c>
     </row>
-    <row r="16" spans="1:40">
-      <c r="A16" t="s">
-        <v>15</v>
+    <row r="16" spans="1:41">
+      <c r="A16" s="1" t="s">
+        <v>55</v>
       </c>
       <c r="B16">
+        <v>-5342000000</v>
+      </c>
+      <c r="C16">
         <v>-8664000000</v>
       </c>
-      <c r="C16">
+      <c r="D16">
         <v>-6661000000</v>
       </c>
-      <c r="D16">
+      <c r="E16">
         <v>-7995000000</v>
       </c>
-      <c r="E16">
+      <c r="F16">
         <v>-10135000000</v>
       </c>
-      <c r="F16">
+      <c r="G16">
         <v>-2617000000</v>
       </c>
-      <c r="G16">
+      <c r="H16">
         <v>-4748000000</v>
       </c>
-      <c r="H16">
+      <c r="I16">
         <v>-49653000000</v>
       </c>
-      <c r="I16">
+      <c r="J16">
         <v>-5043000000</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>-6345000000</v>
       </c>
-      <c r="K16">
+      <c r="L16">
         <v>-5144000000</v>
       </c>
-      <c r="L16">
+      <c r="M16">
         <v>-6980000000</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>-5424000000</v>
       </c>
-      <c r="N16">
+      <c r="O16">
         <v>-3568000000</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>-3786000000</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>-4803000000</v>
       </c>
-      <c r="Q16">
+      <c r="R16">
         <v>-4798000000</v>
       </c>
-      <c r="R16">
+      <c r="S16">
         <v>-4408000000</v>
       </c>
-      <c r="S16">
+      <c r="T16">
         <v>-3443000000</v>
       </c>
-      <c r="T16">
+      <c r="U16">
         <v>-5285000000</v>
       </c>
-      <c r="U16">
+      <c r="V16">
         <v>-5469000000</v>
       </c>
-      <c r="V16">
+      <c r="W16">
         <v>-3728000000</v>
       </c>
-      <c r="W16">
+      <c r="X16">
         <v>-4709000000</v>
       </c>
-      <c r="X16">
+      <c r="Y16">
         <v>-4550000000</v>
       </c>
-      <c r="Y16">
+      <c r="Z16">
         <v>-7335000000</v>
       </c>
-      <c r="Z16">
+      <c r="AA16">
         <v>-5192000000</v>
       </c>
-      <c r="AA16">
+      <c r="AB16">
         <v>6089000000</v>
       </c>
-      <c r="AB16">
+      <c r="AC16">
         <v>-3436000000</v>
       </c>
-      <c r="AC16">
+      <c r="AD16">
         <v>-5447000000</v>
       </c>
-      <c r="AD16">
+      <c r="AE16">
         <v>-4425000000</v>
       </c>
-      <c r="AE16">
+      <c r="AF16">
         <v>-6995000000</v>
       </c>
-      <c r="AF16">
+      <c r="AG16">
         <v>-13176000000</v>
       </c>
-      <c r="AG16">
+      <c r="AH16">
         <v>-5426000000</v>
       </c>
-      <c r="AH16">
+      <c r="AI16">
         <v>-4084000000</v>
       </c>
-      <c r="AI16">
+      <c r="AJ16">
         <v>-1815000000</v>
       </c>
-      <c r="AJ16">
+      <c r="AK16">
         <v>-4531000000</v>
       </c>
-      <c r="AK16">
+      <c r="AL16">
         <v>-4810000000</v>
       </c>
-      <c r="AL16">
+      <c r="AM16">
         <v>-2188000000</v>
       </c>
-      <c r="AM16">
+      <c r="AN16">
         <v>-4236000000</v>
       </c>
-      <c r="AN16">
+      <c r="AO16">
         <v>-3599000000</v>
       </c>
     </row>
-    <row r="17" spans="1:40">
-      <c r="A17" t="s">
-        <v>16</v>
+    <row r="17" spans="1:41">
+      <c r="A17" s="1" t="s">
+        <v>56</v>
       </c>
       <c r="B17">
+        <v>938000000</v>
+      </c>
+      <c r="C17">
         <v>4840000000</v>
       </c>
-      <c r="C17">
+      <c r="D17">
         <v>-373000000</v>
       </c>
-      <c r="D17">
+      <c r="E17">
         <v>-1057000000</v>
       </c>
-      <c r="E17">
+      <c r="F17">
         <v>-832000000</v>
       </c>
-      <c r="F17">
+      <c r="G17">
         <v>-201000000</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>-7762000000</v>
       </c>
-      <c r="H17">
+      <c r="I17">
         <v>31349000000</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>13022000000</v>
       </c>
-      <c r="J17">
+      <c r="K17">
         <v>2243000000</v>
       </c>
-      <c r="K17">
+      <c r="L17">
         <v>-5759000000</v>
       </c>
-      <c r="L17">
+      <c r="M17">
         <v>4763000000</v>
       </c>
-      <c r="M17">
+      <c r="N17">
         <v>186000000</v>
       </c>
-      <c r="N17">
+      <c r="O17">
         <v>-3189000000</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>-1700000000</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>-528000000</v>
       </c>
-      <c r="Q17">
+      <c r="R17">
         <v>-238000000</v>
       </c>
-      <c r="R17">
+      <c r="S17">
         <v>-1275000000</v>
       </c>
-      <c r="S17">
+      <c r="T17">
         <v>-2418000000</v>
       </c>
-      <c r="T17">
+      <c r="U17">
         <v>150000000</v>
       </c>
-      <c r="U17">
+      <c r="V17">
         <v>-576000000</v>
       </c>
-      <c r="V17">
+      <c r="W17">
         <v>-105000000</v>
       </c>
-      <c r="W17">
+      <c r="X17">
         <v>-252000000</v>
       </c>
-      <c r="X17">
+      <c r="Y17">
         <v>8693000000</v>
       </c>
-      <c r="Y17">
+      <c r="Z17">
         <v>2675000000</v>
       </c>
-      <c r="Z17">
+      <c r="AA17">
         <v>6806000000</v>
       </c>
-      <c r="AA17">
+      <c r="AB17">
         <v>-10274000000</v>
       </c>
-      <c r="AB17">
+      <c r="AC17">
         <v>-416000000</v>
       </c>
-      <c r="AC17">
+      <c r="AD17">
         <v>-2041000000</v>
       </c>
-      <c r="AD17">
+      <c r="AE17">
         <v>-1570000000</v>
       </c>
-      <c r="AE17">
+      <c r="AF17">
         <v>-809000000</v>
       </c>
-      <c r="AF17">
+      <c r="AG17">
         <v>1403000000</v>
       </c>
-      <c r="AG17">
+      <c r="AH17">
         <v>4268000000</v>
       </c>
-      <c r="AH17">
+      <c r="AI17">
         <v>-652000000</v>
       </c>
-      <c r="AI17">
+      <c r="AJ17">
         <v>-46000000</v>
       </c>
-      <c r="AJ17">
+      <c r="AK17">
         <v>9253000000</v>
       </c>
-      <c r="AK17">
+      <c r="AL17">
         <v>-5589000000</v>
       </c>
-      <c r="AL17">
+      <c r="AM17">
         <v>48713000000</v>
       </c>
-      <c r="AM17">
+      <c r="AN17">
         <v>-3271000000</v>
       </c>
-      <c r="AN17">
+      <c r="AO17">
         <v>1008000000</v>
       </c>
     </row>
-    <row r="18" spans="1:40">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="AC18">
+    <row r="18" spans="1:41">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="AD18">
         <v>-31000000</v>
       </c>
-      <c r="AD18">
+      <c r="AE18">
         <v>-29000000</v>
       </c>
-      <c r="AE18">
+      <c r="AF18">
         <v>-74000000</v>
       </c>
-      <c r="AF18">
+      <c r="AG18">
         <v>-5000000000</v>
       </c>
-      <c r="AG18">
-        <v>0</v>
-      </c>
       <c r="AH18">
         <v>0</v>
       </c>
@@ -2207,512 +2357,527 @@
         <v>0</v>
       </c>
       <c r="AJ18">
+        <v>0</v>
+      </c>
+      <c r="AK18">
         <v>34000000</v>
       </c>
-      <c r="AK18">
+      <c r="AL18">
         <v>9000000</v>
       </c>
-      <c r="AL18">
+      <c r="AM18">
         <v>2000000</v>
       </c>
-      <c r="AM18">
+      <c r="AN18">
         <v>18000000</v>
       </c>
-      <c r="AN18">
+      <c r="AO18">
         <v>-97000000</v>
       </c>
     </row>
-    <row r="19" spans="1:40">
-      <c r="A19" t="s">
-        <v>18</v>
+    <row r="19" spans="1:41">
+      <c r="A19" s="1" t="s">
+        <v>58</v>
       </c>
       <c r="B19">
+        <v>-2739000000</v>
+      </c>
+      <c r="C19">
         <v>-2688000000</v>
       </c>
-      <c r="C19">
+      <c r="D19">
         <v>-2724000000</v>
       </c>
-      <c r="D19">
+      <c r="E19">
         <v>-2654000000</v>
       </c>
-      <c r="E19">
+      <c r="F19">
         <v>-2648000000</v>
       </c>
-      <c r="F19">
+      <c r="G19">
         <v>-2599000000</v>
       </c>
-      <c r="G19">
+      <c r="H19">
         <v>-2597000000</v>
       </c>
-      <c r="H19">
+      <c r="I19">
         <v>-2601000000</v>
       </c>
-      <c r="I19">
+      <c r="J19">
         <v>-2596000000</v>
       </c>
-      <c r="J19">
+      <c r="K19">
         <v>-2546000000</v>
       </c>
-      <c r="K19">
+      <c r="L19">
         <v>-2543000000</v>
       </c>
-      <c r="L19">
+      <c r="M19">
         <v>-2547000000</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>-2542000000</v>
       </c>
-      <c r="N19">
+      <c r="O19">
         <v>-2493000000</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>-2492000000</v>
-      </c>
-      <c r="P19">
-        <v>-2489000000</v>
       </c>
       <c r="Q19">
         <v>-2489000000</v>
       </c>
       <c r="R19">
-        <v>-2438000000</v>
+        <v>-2489000000</v>
       </c>
       <c r="S19">
         <v>-2438000000</v>
       </c>
       <c r="T19">
+        <v>-2438000000</v>
+      </c>
+      <c r="U19">
         <v>-2407000000</v>
       </c>
-      <c r="U19">
+      <c r="V19">
         <v>-2405000000</v>
       </c>
-      <c r="V19">
+      <c r="W19">
         <v>-2357000000</v>
       </c>
-      <c r="W19">
+      <c r="X19">
         <v>-2356000000</v>
-      </c>
-      <c r="X19">
-        <v>-2354000000</v>
       </c>
       <c r="Y19">
         <v>-2354000000</v>
       </c>
       <c r="Z19">
-        <v>-2303000000</v>
+        <v>-2354000000</v>
       </c>
       <c r="AA19">
         <v>-2303000000</v>
       </c>
       <c r="AB19">
+        <v>-2303000000</v>
+      </c>
+      <c r="AC19">
         <v>-2302000000</v>
       </c>
-      <c r="AC19">
+      <c r="AD19">
         <v>-2165000000</v>
       </c>
-      <c r="AD19">
+      <c r="AE19">
         <v>-2107000000</v>
       </c>
-      <c r="AE19">
+      <c r="AF19">
         <v>-2113000000</v>
       </c>
-      <c r="AF19">
+      <c r="AG19">
         <v>-2153000000</v>
       </c>
-      <c r="AG19">
+      <c r="AH19">
         <v>-2150000000</v>
       </c>
-      <c r="AH19">
+      <c r="AI19">
         <v>-2070000000</v>
       </c>
-      <c r="AI19">
+      <c r="AJ19">
         <v>-2066000000</v>
       </c>
-      <c r="AJ19">
+      <c r="AK19">
         <v>-1517000000</v>
       </c>
-      <c r="AK19">
+      <c r="AL19">
         <v>-1516000000</v>
-      </c>
-      <c r="AL19">
-        <v>-1474000000</v>
       </c>
       <c r="AM19">
         <v>-1474000000</v>
       </c>
       <c r="AN19">
+        <v>-1474000000</v>
+      </c>
+      <c r="AO19">
         <v>-1472000000</v>
       </c>
     </row>
-    <row r="20" spans="1:40">
-      <c r="A20" t="s">
-        <v>19</v>
+    <row r="20" spans="1:41">
+      <c r="A20" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="B20">
+        <v>-1275000000</v>
+      </c>
+      <c r="C20">
         <v>-3768000000</v>
       </c>
-      <c r="C20">
+      <c r="D20">
         <v>-985000000</v>
       </c>
-      <c r="D20">
+      <c r="E20">
         <v>3956000000</v>
       </c>
-      <c r="E20">
+      <c r="F20">
         <v>-1712000000</v>
       </c>
-      <c r="F20">
+      <c r="G20">
         <v>-281000000</v>
       </c>
-      <c r="G20">
+      <c r="H20">
         <v>-1047000000</v>
       </c>
-      <c r="H20">
+      <c r="I20">
         <v>-792000000</v>
       </c>
-      <c r="I20">
+      <c r="J20">
         <v>-1364000000</v>
       </c>
-      <c r="J20">
+      <c r="K20">
         <v>-1202000000</v>
       </c>
-      <c r="K20">
+      <c r="L20">
         <v>-493000000</v>
       </c>
-      <c r="L20">
+      <c r="M20">
         <v>347000000</v>
       </c>
-      <c r="M20">
+      <c r="N20">
         <v>-1507000000</v>
       </c>
-      <c r="N20">
+      <c r="O20">
         <v>-576000000</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>-1194000000</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>360000000</v>
       </c>
-      <c r="Q20">
+      <c r="R20">
         <v>-229000000</v>
       </c>
-      <c r="R20">
+      <c r="S20">
         <v>-843000000</v>
       </c>
-      <c r="S20">
+      <c r="T20">
         <v>-1693000000</v>
       </c>
-      <c r="T20">
+      <c r="U20">
         <v>941000000</v>
       </c>
-      <c r="U20">
+      <c r="V20">
         <v>-1573000000</v>
       </c>
-      <c r="V20">
+      <c r="W20">
         <v>-1035000000</v>
       </c>
-      <c r="W20">
+      <c r="X20">
         <v>-157000000</v>
       </c>
-      <c r="X20">
+      <c r="Y20">
         <v>-1674000000</v>
       </c>
-      <c r="Y20">
+      <c r="Z20">
         <v>-483000000</v>
       </c>
-      <c r="Z20">
+      <c r="AA20">
         <v>-543000000</v>
       </c>
-      <c r="AA20">
+      <c r="AB20">
         <v>-1912000000</v>
       </c>
-      <c r="AB20">
+      <c r="AC20">
         <v>33000000</v>
       </c>
-      <c r="AC20">
+      <c r="AD20">
         <v>-322000000</v>
       </c>
-      <c r="AD20">
+      <c r="AE20">
         <v>-522000000</v>
       </c>
-      <c r="AE20">
+      <c r="AF20">
         <v>-124000000</v>
       </c>
-      <c r="AF20">
+      <c r="AG20">
         <v>2545000000</v>
       </c>
-      <c r="AG20">
+      <c r="AH20">
         <v>-786000000</v>
       </c>
-      <c r="AH20">
+      <c r="AI20">
         <v>-105000000</v>
       </c>
-      <c r="AI20">
+      <c r="AJ20">
         <v>-869000000</v>
       </c>
-      <c r="AJ20">
+      <c r="AK20">
         <v>-60999000000</v>
       </c>
-      <c r="AK20">
+      <c r="AL20">
         <v>-1707000000</v>
       </c>
-      <c r="AL20">
+      <c r="AM20">
         <v>-1370000000</v>
       </c>
-      <c r="AM20">
+      <c r="AN20">
         <v>-4341000000</v>
       </c>
-      <c r="AN20">
+      <c r="AO20">
         <v>-989000000</v>
       </c>
     </row>
-    <row r="21" spans="1:40">
-      <c r="A21" t="s">
-        <v>20</v>
+    <row r="21" spans="1:41">
+      <c r="A21" s="1" t="s">
+        <v>60</v>
       </c>
       <c r="B21">
+        <v>-3076000000</v>
+      </c>
+      <c r="C21">
         <v>-1616000000</v>
       </c>
-      <c r="C21">
+      <c r="D21">
         <v>-4082000000</v>
       </c>
-      <c r="D21">
+      <c r="E21">
         <v>245000000</v>
       </c>
-      <c r="E21">
+      <c r="F21">
         <v>-5192000000</v>
       </c>
-      <c r="F21">
+      <c r="G21">
         <v>-3081000000</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>-11406000000</v>
       </c>
-      <c r="H21">
+      <c r="I21">
         <v>27956000000</v>
       </c>
-      <c r="I21">
+      <c r="J21">
         <v>9062000000</v>
       </c>
-      <c r="J21">
+      <c r="K21">
         <v>-1505000000</v>
       </c>
-      <c r="K21">
+      <c r="L21">
         <v>-8795000000</v>
       </c>
-      <c r="L21">
+      <c r="M21">
         <v>2563000000</v>
       </c>
-      <c r="M21">
+      <c r="N21">
         <v>-3863000000</v>
       </c>
-      <c r="N21">
+      <c r="O21">
         <v>-6258000000</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>-5386000000</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>-2657000000</v>
       </c>
-      <c r="Q21">
+      <c r="R21">
         <v>-2956000000</v>
       </c>
-      <c r="R21">
+      <c r="S21">
         <v>-4556000000</v>
       </c>
-      <c r="S21">
+      <c r="T21">
         <v>-6549000000</v>
       </c>
-      <c r="T21">
+      <c r="U21">
         <v>-1316000000</v>
       </c>
-      <c r="U21">
+      <c r="V21">
         <v>-4554000000</v>
       </c>
-      <c r="V21">
+      <c r="W21">
         <v>-3497000000</v>
       </c>
-      <c r="W21">
+      <c r="X21">
         <v>-2765000000</v>
       </c>
-      <c r="X21">
+      <c r="Y21">
         <v>4665000000</v>
       </c>
-      <c r="Y21">
+      <c r="Z21">
         <v>-162000000</v>
       </c>
-      <c r="Z21">
+      <c r="AA21">
         <v>3960000000</v>
       </c>
-      <c r="AA21">
+      <c r="AB21">
         <v>-14489000000</v>
       </c>
-      <c r="AB21">
+      <c r="AC21">
         <v>-2685000000</v>
       </c>
-      <c r="AC21">
+      <c r="AD21">
         <v>-4559000000</v>
       </c>
-      <c r="AD21">
+      <c r="AE21">
         <v>-4228000000</v>
       </c>
-      <c r="AE21">
+      <c r="AF21">
         <v>-3120000000</v>
       </c>
-      <c r="AF21">
+      <c r="AG21">
         <v>-3205000000</v>
       </c>
-      <c r="AG21">
+      <c r="AH21">
         <v>1332000000</v>
       </c>
-      <c r="AH21">
+      <c r="AI21">
         <v>-2827000000</v>
       </c>
-      <c r="AI21">
+      <c r="AJ21">
         <v>-2981000000</v>
       </c>
-      <c r="AJ21">
+      <c r="AK21">
         <v>-53229000000</v>
       </c>
-      <c r="AK21">
+      <c r="AL21">
         <v>-8803000000</v>
       </c>
-      <c r="AL21">
+      <c r="AM21">
         <v>45871000000</v>
       </c>
-      <c r="AM21">
+      <c r="AN21">
         <v>-9068000000</v>
       </c>
-      <c r="AN21">
+      <c r="AO21">
         <v>-1550000000</v>
       </c>
     </row>
-    <row r="22" spans="1:40">
-      <c r="A22" t="s">
-        <v>21</v>
+    <row r="22" spans="1:41">
+      <c r="A22" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="B22">
+        <v>524000000</v>
+      </c>
+      <c r="C22">
         <v>254000000</v>
       </c>
-      <c r="C22">
+      <c r="D22">
         <v>101000000</v>
       </c>
-      <c r="D22">
+      <c r="E22">
         <v>-929000000</v>
       </c>
-      <c r="E22">
+      <c r="F22">
         <v>-6950000000</v>
       </c>
-      <c r="F22">
+      <c r="G22">
         <v>5026000000</v>
       </c>
-      <c r="G22">
+      <c r="H22">
         <v>-5410000000</v>
       </c>
-      <c r="H22">
+      <c r="I22">
         <v>-12003000000</v>
       </c>
-      <c r="I22">
+      <c r="J22">
         <v>13315000000</v>
       </c>
-      <c r="J22">
+      <c r="K22">
         <v>1070000000</v>
       </c>
-      <c r="K22">
+      <c r="L22">
         <v>789000000</v>
       </c>
-      <c r="L22">
+      <c r="M22">
         <v>4407000000</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>-289000000</v>
       </c>
-      <c r="N22">
+      <c r="O22">
         <v>1086000000</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>-417000000</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>-379000000</v>
       </c>
-      <c r="Q22">
+      <c r="R22">
         <v>341000000</v>
       </c>
-      <c r="R22">
+      <c r="S22">
         <v>847000000</v>
       </c>
-      <c r="S22">
+      <c r="T22">
         <v>-207000000</v>
       </c>
-      <c r="T22">
+      <c r="U22">
         <v>47000000</v>
       </c>
-      <c r="U22">
+      <c r="V22">
         <v>-2180000000</v>
       </c>
-      <c r="V22">
+      <c r="W22">
         <v>-56000000</v>
       </c>
-      <c r="W22">
+      <c r="X22">
         <v>456000000</v>
       </c>
-      <c r="X22">
+      <c r="Y22">
         <v>1491000000</v>
       </c>
-      <c r="Y22">
+      <c r="Z22">
         <v>-3532000000</v>
       </c>
-      <c r="Z22">
+      <c r="AA22">
         <v>3584000000</v>
       </c>
-      <c r="AA22">
+      <c r="AB22">
         <v>-2989000000</v>
       </c>
-      <c r="AB22">
+      <c r="AC22">
         <v>1376000000</v>
       </c>
-      <c r="AC22">
+      <c r="AD22">
         <v>595000000</v>
       </c>
-      <c r="AD22">
+      <c r="AE22">
         <v>867000000</v>
       </c>
-      <c r="AE22">
+      <c r="AF22">
         <v>-1378000000</v>
       </c>
-      <c r="AF22">
+      <c r="AG22">
         <v>-6212000000</v>
       </c>
-      <c r="AG22">
+      <c r="AH22">
         <v>3380000000</v>
       </c>
-      <c r="AH22">
+      <c r="AI22">
         <v>1442000000</v>
       </c>
-      <c r="AI22">
+      <c r="AJ22">
         <v>2869000000</v>
       </c>
-      <c r="AJ22">
+      <c r="AK22">
         <v>-50621000000</v>
       </c>
-      <c r="AK22">
+      <c r="AL22">
         <v>-3182000000</v>
       </c>
-      <c r="AL22">
+      <c r="AM22">
         <v>54922000000</v>
       </c>
-      <c r="AM22">
+      <c r="AN22">
         <v>-3687000000</v>
       </c>
-      <c r="AN22">
+      <c r="AO22">
         <v>2382000000</v>
       </c>
     </row>
-    <row r="23" spans="1:40">
-      <c r="A23" t="s">
-        <v>22</v>
+    <row r="23" spans="1:41">
+      <c r="A23" s="1" t="s">
+        <v>62</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -2721,11 +2886,11 @@
         <v>0</v>
       </c>
       <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23">
         <v>4161000000</v>
       </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
       <c r="F23">
         <v>0</v>
       </c>
@@ -2733,11 +2898,11 @@
         <v>0</v>
       </c>
       <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
         <v>23498000000</v>
       </c>
-      <c r="I23">
-        <v>0</v>
-      </c>
       <c r="J23">
         <v>0</v>
       </c>
@@ -2745,11 +2910,11 @@
         <v>0</v>
       </c>
       <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
         <v>3917000000</v>
       </c>
-      <c r="M23">
-        <v>0</v>
-      </c>
       <c r="N23">
         <v>0</v>
       </c>
@@ -2757,11 +2922,11 @@
         <v>0</v>
       </c>
       <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
         <v>3916000000</v>
       </c>
-      <c r="Q23">
-        <v>0</v>
-      </c>
       <c r="R23">
         <v>0</v>
       </c>
@@ -2769,11 +2934,11 @@
         <v>0</v>
       </c>
       <c r="T23">
+        <v>0</v>
+      </c>
+      <c r="U23">
         <v>2888000000</v>
       </c>
-      <c r="U23">
-        <v>0</v>
-      </c>
       <c r="V23">
         <v>0</v>
       </c>
@@ -2781,23 +2946,23 @@
         <v>0</v>
       </c>
       <c r="X23">
+        <v>0</v>
+      </c>
+      <c r="Y23">
         <v>3177000000</v>
       </c>
-      <c r="Y23">
+      <c r="Z23">
         <v>268000000</v>
       </c>
-      <c r="Z23">
-        <v>0</v>
-      </c>
       <c r="AA23">
         <v>0</v>
       </c>
       <c r="AB23">
+        <v>0</v>
+      </c>
+      <c r="AC23">
         <v>4470000000</v>
       </c>
-      <c r="AC23">
-        <v>0</v>
-      </c>
       <c r="AD23">
         <v>0</v>
       </c>
@@ -2805,11 +2970,11 @@
         <v>0</v>
       </c>
       <c r="AF23">
+        <v>0</v>
+      </c>
+      <c r="AG23">
         <v>10598000000</v>
       </c>
-      <c r="AG23">
-        <v>0</v>
-      </c>
       <c r="AH23">
         <v>0</v>
       </c>
@@ -2817,11 +2982,11 @@
         <v>0</v>
       </c>
       <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23">
         <v>53528000000</v>
       </c>
-      <c r="AK23">
-        <v>0</v>
-      </c>
       <c r="AL23">
         <v>0</v>
       </c>
@@ -2829,516 +2994,528 @@
         <v>0</v>
       </c>
       <c r="AN23">
+        <v>0</v>
+      </c>
+      <c r="AO23">
         <v>3093000000</v>
       </c>
     </row>
-    <row r="24" spans="1:40">
-      <c r="A24" t="s">
-        <v>23</v>
+    <row r="24" spans="1:41">
+      <c r="A24" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="B24">
+        <v>524000000</v>
+      </c>
+      <c r="C24">
         <v>254000000</v>
       </c>
-      <c r="C24">
+      <c r="D24">
         <v>101000000</v>
       </c>
-      <c r="D24">
+      <c r="E24">
         <v>3232000000</v>
       </c>
-      <c r="E24">
+      <c r="F24">
         <v>-6950000000</v>
       </c>
-      <c r="F24">
+      <c r="G24">
         <v>5026000000</v>
       </c>
-      <c r="G24">
+      <c r="H24">
         <v>-5410000000</v>
       </c>
-      <c r="H24">
+      <c r="I24">
         <v>11495000000</v>
       </c>
-      <c r="I24">
+      <c r="J24">
         <v>13315000000</v>
       </c>
-      <c r="J24">
+      <c r="K24">
         <v>1070000000</v>
       </c>
-      <c r="K24">
+      <c r="L24">
         <v>789000000</v>
       </c>
-      <c r="L24">
+      <c r="M24">
         <v>8324000000</v>
       </c>
-      <c r="M24">
+      <c r="N24">
         <v>-289000000</v>
       </c>
-      <c r="N24">
+      <c r="O24">
         <v>1086000000</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>-417000000</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>3537000000</v>
       </c>
-      <c r="Q24">
+      <c r="R24">
         <v>341000000</v>
       </c>
-      <c r="R24">
+      <c r="S24">
         <v>847000000</v>
       </c>
-      <c r="S24">
+      <c r="T24">
         <v>-207000000</v>
       </c>
-      <c r="T24">
+      <c r="U24">
         <v>2935000000</v>
       </c>
-      <c r="U24">
+      <c r="V24">
         <v>-2180000000</v>
       </c>
-      <c r="V24">
+      <c r="W24">
         <v>-56000000</v>
       </c>
-      <c r="W24">
+      <c r="X24">
         <v>456000000</v>
       </c>
-      <c r="X24">
+      <c r="Y24">
         <v>4668000000</v>
       </c>
-      <c r="Y24">
+      <c r="Z24">
         <v>-3264000000</v>
       </c>
-      <c r="Z24">
+      <c r="AA24">
         <v>3584000000</v>
       </c>
-      <c r="AA24">
+      <c r="AB24">
         <v>-2989000000</v>
       </c>
-      <c r="AB24">
+      <c r="AC24">
         <v>5846000000</v>
       </c>
-      <c r="AC24">
+      <c r="AD24">
         <v>595000000</v>
       </c>
-      <c r="AD24">
+      <c r="AE24">
         <v>867000000</v>
       </c>
-      <c r="AE24">
+      <c r="AF24">
         <v>-1378000000</v>
       </c>
-      <c r="AF24">
+      <c r="AG24">
         <v>4386000000</v>
       </c>
-      <c r="AG24">
+      <c r="AH24">
         <v>3380000000</v>
       </c>
-      <c r="AH24">
+      <c r="AI24">
         <v>1442000000</v>
       </c>
-      <c r="AI24">
+      <c r="AJ24">
         <v>2869000000</v>
       </c>
-      <c r="AJ24">
+      <c r="AK24">
         <v>2907000000</v>
       </c>
-      <c r="AK24">
+      <c r="AL24">
         <v>-3182000000</v>
       </c>
-      <c r="AL24">
+      <c r="AM24">
         <v>54922000000</v>
       </c>
-      <c r="AM24">
+      <c r="AN24">
         <v>-3687000000</v>
       </c>
-      <c r="AN24">
+      <c r="AO24">
         <v>5475000000</v>
       </c>
     </row>
-    <row r="25" spans="1:40">
-      <c r="A25" t="s">
-        <v>24</v>
+    <row r="25" spans="1:41">
+      <c r="A25" s="1" t="s">
+        <v>64</v>
       </c>
       <c r="B25">
+        <v>-2739000000</v>
+      </c>
+      <c r="C25">
         <v>-2688000000</v>
       </c>
-      <c r="C25">
+      <c r="D25">
         <v>-2724000000</v>
       </c>
-      <c r="D25">
+      <c r="E25">
         <v>-2654000000</v>
       </c>
-      <c r="E25">
+      <c r="F25">
         <v>-2648000000</v>
       </c>
-      <c r="F25">
+      <c r="G25">
         <v>-2599000000</v>
       </c>
-      <c r="G25">
+      <c r="H25">
         <v>-2597000000</v>
       </c>
-      <c r="H25">
+      <c r="I25">
         <v>-2601000000</v>
       </c>
-      <c r="I25">
+      <c r="J25">
         <v>-2596000000</v>
       </c>
-      <c r="J25">
+      <c r="K25">
         <v>-2546000000</v>
       </c>
-      <c r="K25">
+      <c r="L25">
         <v>-2543000000</v>
       </c>
-      <c r="L25">
+      <c r="M25">
         <v>-2547000000</v>
       </c>
-      <c r="M25">
+      <c r="N25">
         <v>-2542000000</v>
       </c>
-      <c r="N25">
+      <c r="O25">
         <v>-2493000000</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>-2492000000</v>
-      </c>
-      <c r="P25">
-        <v>-2489000000</v>
       </c>
       <c r="Q25">
         <v>-2489000000</v>
       </c>
       <c r="R25">
-        <v>-2438000000</v>
+        <v>-2489000000</v>
       </c>
       <c r="S25">
         <v>-2438000000</v>
       </c>
       <c r="T25">
+        <v>-2438000000</v>
+      </c>
+      <c r="U25">
         <v>-2407000000</v>
       </c>
-      <c r="U25">
+      <c r="V25">
         <v>-2405000000</v>
       </c>
-      <c r="V25">
+      <c r="W25">
         <v>-2357000000</v>
       </c>
-      <c r="W25">
+      <c r="X25">
         <v>-2356000000</v>
-      </c>
-      <c r="X25">
-        <v>-2354000000</v>
       </c>
       <c r="Y25">
         <v>-2354000000</v>
       </c>
       <c r="Z25">
-        <v>-2303000000</v>
+        <v>-2354000000</v>
       </c>
       <c r="AA25">
         <v>-2303000000</v>
       </c>
       <c r="AB25">
+        <v>-2303000000</v>
+      </c>
+      <c r="AC25">
         <v>-2302000000</v>
       </c>
-      <c r="AC25">
+      <c r="AD25">
         <v>-2165000000</v>
       </c>
-      <c r="AD25">
+      <c r="AE25">
         <v>-2107000000</v>
       </c>
-      <c r="AE25">
+      <c r="AF25">
         <v>-2113000000</v>
       </c>
-      <c r="AF25">
+      <c r="AG25">
         <v>-2153000000</v>
       </c>
-      <c r="AG25">
+      <c r="AH25">
         <v>-2150000000</v>
       </c>
-      <c r="AH25">
+      <c r="AI25">
         <v>-2070000000</v>
       </c>
-      <c r="AI25">
+      <c r="AJ25">
         <v>-2066000000</v>
       </c>
-      <c r="AJ25">
+      <c r="AK25">
         <v>-1517000000</v>
       </c>
-      <c r="AK25">
+      <c r="AL25">
         <v>-1516000000</v>
-      </c>
-      <c r="AL25">
-        <v>-1474000000</v>
       </c>
       <c r="AM25">
         <v>-1474000000</v>
       </c>
       <c r="AN25">
+        <v>-1474000000</v>
+      </c>
+      <c r="AO25">
         <v>-1472000000</v>
       </c>
     </row>
-    <row r="26" spans="1:40">
-      <c r="A26" t="s">
-        <v>25</v>
+    <row r="26" spans="1:41">
+      <c r="A26" s="1" t="s">
+        <v>65</v>
       </c>
       <c r="B26">
-        <v>0.914</v>
+        <v>0.8777</v>
       </c>
       <c r="C26">
-        <v>0.6904</v>
+        <v>1.0693</v>
       </c>
       <c r="D26">
-        <v>0.709</v>
+        <v>0.8086</v>
       </c>
       <c r="E26">
-        <v>0.6864</v>
+        <v>0.8274</v>
       </c>
       <c r="F26">
-        <v>0.6304999999999999</v>
+        <v>0.8069</v>
       </c>
       <c r="G26">
+        <v>0.7469</v>
+      </c>
+      <c r="H26">
         <v>0.6347</v>
       </c>
-      <c r="H26">
+      <c r="I26">
         <v>0.6159</v>
       </c>
-      <c r="I26">
+      <c r="J26">
         <v>0.4395</v>
       </c>
-      <c r="J26">
+      <c r="K26">
         <v>0.4327</v>
       </c>
-      <c r="K26">
+      <c r="L26">
         <v>0.46</v>
       </c>
-      <c r="L26">
+      <c r="M26">
         <v>0.4977</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>0.4286</v>
       </c>
-      <c r="N26">
+      <c r="O26">
         <v>0.4267</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>0.4752</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>0.4553</v>
       </c>
-      <c r="Q26">
+      <c r="R26">
         <v>0.38</v>
       </c>
-      <c r="R26">
+      <c r="S26">
         <v>0.4958</v>
       </c>
-      <c r="S26">
+      <c r="T26">
         <v>0.5415</v>
       </c>
-      <c r="T26">
+      <c r="U26">
         <v>0.6052</v>
       </c>
-      <c r="U26">
+      <c r="V26">
         <v>0.5261</v>
       </c>
-      <c r="V26">
+      <c r="W26">
         <v>0.5606</v>
       </c>
-      <c r="W26">
+      <c r="X26">
         <v>0.6196</v>
       </c>
-      <c r="X26">
+      <c r="Y26">
         <v>0.5639999999999999</v>
       </c>
-      <c r="Y26">
+      <c r="Z26">
         <v>0.4724</v>
       </c>
-      <c r="Z26">
+      <c r="AA26">
         <v>0.4723</v>
       </c>
-      <c r="AA26">
+      <c r="AB26">
         <v>0.4253</v>
       </c>
-      <c r="AB26">
+      <c r="AC26">
         <v>0.4715</v>
       </c>
-      <c r="AC26">
+      <c r="AD26">
         <v>0.5556</v>
       </c>
-      <c r="AD26">
+      <c r="AE26">
         <v>0.6104000000000001</v>
       </c>
-      <c r="AE26">
+      <c r="AF26">
         <v>0.5804</v>
       </c>
-      <c r="AF26">
+      <c r="AG26">
         <v>0.5417999999999999</v>
       </c>
-      <c r="AG26">
+      <c r="AH26">
         <v>0.5493</v>
       </c>
-      <c r="AH26">
+      <c r="AI26">
         <v>0.4884</v>
       </c>
-      <c r="AI26">
+      <c r="AJ26">
         <v>0.5103</v>
       </c>
-      <c r="AJ26">
+      <c r="AK26">
         <v>0.652</v>
       </c>
-      <c r="AK26">
+      <c r="AL26">
         <v>0.2802</v>
       </c>
-      <c r="AL26">
+      <c r="AM26">
         <v>0.3125</v>
       </c>
-      <c r="AM26">
+      <c r="AN26">
         <v>0.3282</v>
       </c>
-      <c r="AN26">
+      <c r="AO26">
         <v>0.3314</v>
       </c>
     </row>
-    <row r="27" spans="1:40">
-      <c r="A27" t="s">
-        <v>26</v>
+    <row r="27" spans="1:41">
+      <c r="A27" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="B27">
+        <v>2000000</v>
+      </c>
+      <c r="C27">
         <v>1501000000</v>
       </c>
-      <c r="C27">
+      <c r="D27">
         <v>1533000000</v>
       </c>
-      <c r="D27">
+      <c r="E27">
         <v>-3492000000</v>
       </c>
-      <c r="E27">
+      <c r="F27">
         <v>-1493000000</v>
       </c>
-      <c r="F27">
+      <c r="G27">
         <v>521000000</v>
       </c>
-      <c r="G27">
+      <c r="H27">
         <v>123000000</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>-41000000</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>-1289000000</v>
       </c>
-      <c r="J27">
+      <c r="K27">
         <v>-1952000000</v>
       </c>
-      <c r="K27">
+      <c r="L27">
         <v>4505000000</v>
       </c>
-      <c r="L27">
+      <c r="M27">
         <v>-1208000000</v>
       </c>
-      <c r="M27">
+      <c r="N27">
         <v>-2811000000</v>
       </c>
-      <c r="N27">
+      <c r="O27">
         <v>691000000</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>-1891000000</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>-2702000000</v>
       </c>
-      <c r="Q27">
+      <c r="R27">
         <v>767000000</v>
       </c>
-      <c r="R27">
+      <c r="S27">
         <v>-406000000</v>
       </c>
-      <c r="S27">
+      <c r="T27">
         <v>495000000</v>
       </c>
-      <c r="T27">
+      <c r="U27">
         <v>-2033000000</v>
       </c>
-      <c r="U27">
+      <c r="V27">
         <v>319000000</v>
       </c>
-      <c r="V27">
+      <c r="W27">
         <v>-2536000000</v>
       </c>
-      <c r="W27">
+      <c r="X27">
         <v>1277000000</v>
       </c>
-      <c r="X27">
+      <c r="Y27">
         <v>-4998000000</v>
       </c>
-      <c r="Y27">
+      <c r="Z27">
         <v>-1738000000</v>
       </c>
-      <c r="Z27">
+      <c r="AA27">
         <v>-2943000000</v>
       </c>
-      <c r="AA27">
+      <c r="AB27">
         <v>-912000000</v>
       </c>
-      <c r="AB27">
+      <c r="AC27">
         <v>-1162000000</v>
       </c>
-      <c r="AC27">
+      <c r="AD27">
         <v>1000000000</v>
       </c>
-      <c r="AD27">
+      <c r="AE27">
         <v>1027000000</v>
       </c>
-      <c r="AE27">
+      <c r="AF27">
         <v>1304000000</v>
       </c>
-      <c r="AF27">
+      <c r="AG27">
         <v>-888000000</v>
       </c>
-      <c r="AG27">
+      <c r="AH27">
         <v>-1344000000</v>
       </c>
-      <c r="AH27">
+      <c r="AI27">
         <v>31000000</v>
       </c>
-      <c r="AI27">
+      <c r="AJ27">
         <v>779000000</v>
       </c>
-      <c r="AJ27">
+      <c r="AK27">
         <v>-1626000000</v>
       </c>
-      <c r="AK27">
+      <c r="AL27">
         <v>1073000000</v>
       </c>
-      <c r="AL27">
+      <c r="AM27">
         <v>582000000</v>
       </c>
-      <c r="AM27">
+      <c r="AN27">
         <v>-169000000</v>
       </c>
-      <c r="AN27">
+      <c r="AO27">
         <v>-1491000000</v>
       </c>
     </row>
-    <row r="28" spans="1:40">
-      <c r="A28" t="s">
-        <v>27</v>
-      </c>
-      <c r="AC28">
+    <row r="28" spans="1:41">
+      <c r="A28" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="AD28">
         <v>-31000000</v>
       </c>
-      <c r="AD28">
+      <c r="AE28">
         <v>-29000000</v>
       </c>
-      <c r="AE28">
+      <c r="AF28">
         <v>-74000000</v>
       </c>
-      <c r="AF28">
+      <c r="AG28">
         <v>-5000000000</v>
       </c>
-      <c r="AG28">
-        <v>0</v>
-      </c>
       <c r="AH28">
         <v>0</v>
       </c>
@@ -3346,40 +3523,40 @@
         <v>0</v>
       </c>
       <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28">
         <v>34000000</v>
       </c>
-      <c r="AK28">
+      <c r="AL28">
         <v>9000000</v>
       </c>
-      <c r="AL28">
+      <c r="AM28">
         <v>2000000</v>
       </c>
-      <c r="AM28">
+      <c r="AN28">
         <v>18000000</v>
       </c>
-      <c r="AN28">
+      <c r="AO28">
         <v>-97000000</v>
       </c>
     </row>
-    <row r="29" spans="1:40">
-      <c r="A29" t="s">
-        <v>28</v>
-      </c>
-      <c r="AC29">
+    <row r="29" spans="1:41">
+      <c r="A29" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AD29">
         <v>-31000000</v>
       </c>
-      <c r="AD29">
+      <c r="AE29">
         <v>-29000000</v>
       </c>
-      <c r="AE29">
+      <c r="AF29">
         <v>-74000000</v>
       </c>
-      <c r="AF29">
+      <c r="AG29">
         <v>-5000000000</v>
       </c>
-      <c r="AG29">
-        <v>0</v>
-      </c>
       <c r="AH29">
         <v>0</v>
       </c>
@@ -3387,18 +3564,21 @@
         <v>0</v>
       </c>
       <c r="AJ29">
+        <v>0</v>
+      </c>
+      <c r="AK29">
         <v>34000000</v>
       </c>
-      <c r="AK29">
+      <c r="AL29">
         <v>9000000</v>
       </c>
-      <c r="AL29">
+      <c r="AM29">
         <v>2000000</v>
       </c>
-      <c r="AM29">
+      <c r="AN29">
         <v>18000000</v>
       </c>
-      <c r="AN29">
+      <c r="AO29">
         <v>-97000000</v>
       </c>
     </row>
